--- a/data/georgia_census/kakheti/telavi/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/telavi/healthcare_staff.xlsx
@@ -1308,13 +1308,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4B58B7-86AB-4A15-AFB5-772584B5E195}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A257-35A8-4427-AFEC-DEC33FCD05FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE40DB1-0A02-4DB6-B5BC-69AA4DD0F13C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E301A6D-7EC8-48C8-923A-28BE41D70DD7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{490CCB45-C225-49F2-98C3-A2BDCDC5C586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EAEE6FB-BFCC-4DC2-818F-9F61B61F8835}"/>
 </file>